--- a/record/leetcode每日一题.xlsx
+++ b/record/leetcode每日一题.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10435\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\leetcode_everyday\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4629BE-47DE-48D4-876B-163A5EBA30EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D526A9-4F40-4957-8B0E-C9FCDF62206E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1990" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>2025.04.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,12 +50,34 @@
     <t>没啥难度，暴力方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2025.05.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3341. 到达最后一个房间的最少时间 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.05.08</t>
+  </si>
+  <si>
+    <t>3342. 到达最后一个房间的最少时间 II</t>
+  </si>
+  <si>
+    <t>竟然一次就过了，不可思议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加强版dijkstra算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +105,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -101,15 +131,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -387,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -410,8 +443,33 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://leetcode.cn/problems/find-minimum-time-to-reach-last-room-ii/" xr:uid="{16D705F8-5E71-4CBB-92AB-53572340EBC0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/record/leetcode每日一题.xlsx
+++ b/record/leetcode每日一题.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\leetcode_everyday\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D526A9-4F40-4957-8B0E-C9FCDF62206E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC44A0F-2B8D-4E5B-AF60-63FF4613D40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>2025.04.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,17 @@
   </si>
   <si>
     <t>加强版dijkstra算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1550. 存在连续三个奇数的数组</t>
+  </si>
+  <si>
+    <t>2025.05.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很简单的一道题目，判断奇偶可以学习：num &amp;1如果是1，就是奇数，如果是0就是偶数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,16 +431,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.9140625" customWidth="1"/>
     <col min="2" max="2" width="34.58203125" customWidth="1"/>
+    <col min="3" max="3" width="77.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
@@ -465,10 +477,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://leetcode.cn/problems/find-minimum-time-to-reach-last-room-ii/" xr:uid="{16D705F8-5E71-4CBB-92AB-53572340EBC0}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://leetcode.cn/problems/three-consecutive-odds/" xr:uid="{0A86E93C-47E6-4345-AC15-CC6CF9A9850B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/record/leetcode每日一题.xlsx
+++ b/record/leetcode每日一题.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\leetcode_everyday\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC44A0F-2B8D-4E5B-AF60-63FF4613D40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836ED4F9-CDAD-4E82-90F1-F67106F9E7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>2025.04.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,13 @@
   </si>
   <si>
     <t>很简单的一道题目，判断奇偶可以学习：num &amp;1如果是1，就是奇数，如果是0就是偶数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3264. K 次乘运算后的最终数组 I</t>
+  </si>
+  <si>
+    <t>小题大做，用优先队列越整越复杂了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -488,11 +495,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://leetcode.cn/problems/find-minimum-time-to-reach-last-room-ii/" xr:uid="{16D705F8-5E71-4CBB-92AB-53572340EBC0}"/>
     <hyperlink ref="B4" r:id="rId2" display="https://leetcode.cn/problems/three-consecutive-odds/" xr:uid="{0A86E93C-47E6-4345-AC15-CC6CF9A9850B}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://leetcode.cn/problems/final-array-state-after-k-multiplication-operations-i/" xr:uid="{8E63AF6C-EC63-467E-9E79-4049C77CD0C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
